--- a/Application/ChefReports Route - 1 ( Low Carb ).xlsx
+++ b/Application/ChefReports Route - 1 ( Low Carb ).xlsx
@@ -9,15 +9,12 @@
     <sheet name="ChefReports Route - 0" r:id="rId3" sheetId="1"/>
     <sheet name="ChefReports Route - 1" r:id="rId4" sheetId="2"/>
     <sheet name="ChefReports Route - 2" r:id="rId5" sheetId="3"/>
-    <sheet name="ChefReports Route - 3" r:id="rId6" sheetId="4"/>
-    <sheet name="ChefReports Route - 4" r:id="rId7" sheetId="5"/>
-    <sheet name="ChefReports Route - 5" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>Doorstep Chef - Chef Report 26 Sep 2016</t>
   </si>
@@ -116,15 +113,6 @@
   </si>
   <si>
     <t>Absolutely no nuts</t>
-  </si>
-  <si>
-    <t>Meal Type : Low Carb  Route: 3</t>
-  </si>
-  <si>
-    <t>Meal Type : Low Carb  Route: 4</t>
-  </si>
-  <si>
-    <t>Meal Type : Low Carb  Route: 5</t>
   </si>
 </sst>
 </file>
@@ -132,686 +120,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="315">
+  <fonts count="158">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="13.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1595,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1798,241 +1113,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="125" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="172" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="209" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="214" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="273" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="276" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="278" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="280" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="282" fillId="3" borderId="12" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -2079,11 +1159,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2265,11 +1345,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2465,11 +1545,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
+    <col min="3" max="3" width="31.25" customWidth="true"/>
     <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2632,578 +1712,6 @@
         <v>1</v>
       </c>
       <c r="D11" t="s" s="145">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="146">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="147">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="148">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="149">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="150">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="151">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="152">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="153">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="154">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="155">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="157">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="158">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="159">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="160">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="161">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="162">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s" s="163">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s" s="164">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="165">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s" s="166">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="167">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="169">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s" s="170">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s" s="171">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s" s="172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="173">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s" s="174">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s" s="175">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="177">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s" s="178">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s" s="179">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="181">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s" s="182">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s" s="183">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="185">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s" s="186">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="187">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s" s="188">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="189">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s" s="190">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s" s="191">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="192">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="193">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="194">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="195">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="196">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="197">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="198">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="199">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="200">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="201">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="202">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="204">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="205">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="206">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="207">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="208">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s" s="209">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="210">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="212">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s" s="213">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="214">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s" s="215">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="216">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s" s="217">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s" s="218">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s" s="219">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="220">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="221">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s" s="222">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s" s="223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="224">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s" s="225">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="226">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s" s="227">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="228">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="229">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s" s="230">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="232">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s" s="233">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s" s="234">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="236">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s" s="237">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s" s="238">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="240">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s" s="241">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s" s="242">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s" s="243">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="11.71875" customWidth="true"/>
-    <col min="2" max="2" width="11.71875" customWidth="true"/>
-    <col min="3" max="3" width="23.4375" customWidth="true"/>
-    <col min="4" max="4" width="31.25" customWidth="true"/>
-    <col min="5" max="5" width="11.71875" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="244">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="245">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="246">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="247">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="248">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="249">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="250">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="251">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="252">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="253">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s" s="254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="255">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="256">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s" s="257">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s" s="258">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="259">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s" s="260">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="261">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s" s="262">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="263">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="264">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s" s="265">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s" s="266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="267">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s" s="268">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="269">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s" s="270">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="271">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s" s="272">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s" s="273">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s" s="274">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="275">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s" s="276">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s" s="277">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s" s="278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="279">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s" s="280">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="281">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s" s="282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="283">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s" s="284">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="285">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s" s="286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="287">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s" s="288">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="289">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s" s="290">
         <v>1</v>
       </c>
     </row>
